--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="174">
   <si>
     <t>字段描述</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>ORDER_NO</t>
-  </si>
-  <si>
-    <t>number(4)</t>
   </si>
   <si>
     <t>状态</t>
@@ -472,6 +469,177 @@
   </si>
   <si>
     <t>METHOD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>气管内全身麻醉，腰硬联合麻醉，硬膜外麻醉，神经阻滞麻醉，支气管内麻醉，强化麻醉</t>
+  </si>
+  <si>
+    <t>表名：T_ANES_WORK（麻醉工作量表）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属科室</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普外科，妇科，产科，骨科，手足外科，脑外科，口腔科，耳鼻喉科</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本型数字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>术后止痛泵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pump</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值型数字范围为0-1，默认为0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地佐辛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dezocine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值型数字范围为0-10，默认为0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲哌卡因</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mepivacaine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人姓名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人年龄</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>admission_no</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>anesthesia_method</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_time</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生姓名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉医生ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>anesthetist_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：T_ANESTHETIST（麻醉医生表）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ANESTHETIST：ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1002,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1022,7 +1190,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1066,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -1088,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1106,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1122,7 +1290,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1138,7 +1306,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1148,13 +1316,13 @@
     </row>
     <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1163,18 +1331,18 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1184,13 +1352,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1199,18 +1367,18 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1222,43 +1390,43 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1302,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
@@ -1318,35 +1486,35 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1358,13 +1526,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1376,13 +1544,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1394,7 +1562,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1438,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>10</v>
@@ -1449,18 +1617,18 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1472,13 +1640,13 @@
     </row>
     <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1487,18 +1655,18 @@
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1508,13 +1676,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1523,18 +1691,18 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1546,43 +1714,43 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1626,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>10</v>
@@ -1637,18 +1805,18 @@
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1660,13 +1828,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1675,18 +1843,18 @@
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1698,13 +1866,13 @@
     </row>
     <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1713,18 +1881,18 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1733,27 +1901,27 @@
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -1761,10 +1929,10 @@
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1774,13 +1942,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1790,13 +1958,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1805,18 +1973,18 @@
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1828,43 +1996,43 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1908,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>10</v>
@@ -1919,22 +2087,22 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="C53" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>10</v>
@@ -1944,17 +2112,17 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C54" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>10</v>
@@ -1974,7 +2142,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2018,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>10</v>
@@ -2029,22 +2197,22 @@
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="C59" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>10</v>
@@ -2054,17 +2222,17 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="C60" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>10</v>
@@ -2077,7 +2245,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -2121,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>10</v>
@@ -2130,18 +2298,18 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C65" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2153,13 +2321,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="C66" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -2168,18 +2336,18 @@
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2189,13 +2357,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="C68" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -2205,20 +2373,20 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="C69" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2226,7 +2394,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2270,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>10</v>
@@ -2279,18 +2447,18 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C74" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -2302,13 +2470,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C75" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -2318,13 +2486,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="C76" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -2334,13 +2502,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -2350,13 +2518,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C78" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -2369,7 +2537,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -2413,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>10</v>
@@ -2422,18 +2590,18 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -2445,13 +2613,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="C84" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -2463,13 +2631,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -2481,13 +2649,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -2499,13 +2667,13 @@
     </row>
     <row r="87" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -2514,18 +2682,18 @@
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="C88" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -2535,13 +2703,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -2553,13 +2721,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C90" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -2571,13 +2739,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C91" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -2587,13 +2755,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C92" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -2604,17 +2772,481 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H93" s="9"/>
     </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A98" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A103" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="5"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A113:H113"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A94:H94"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A80:H80"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="181">
   <si>
     <t>字段描述</t>
   </si>
@@ -480,9 +480,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>气管内全身麻醉，腰硬联合麻醉，硬膜外麻醉，神经阻滞麻醉，支气管内麻醉，强化麻醉</t>
-  </si>
-  <si>
     <t>表名：T_ANES_WORK（麻醉工作量表）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -495,67 +492,175 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>住院号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本型数字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pump</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值型数字范围为0-1，默认为0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dezocine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值型数字范围为0-10，默认为0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mepivacaine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>admission_no</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生姓名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉医生ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>anesthetist_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ANESTHETIST：ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_dt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient_age</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>术后止痛泵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地佐辛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲哌卡因</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：T_ANES_ANESTHETIST（麻醉医生表）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>department</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>普外科，妇科，产科，骨科，手足外科，脑外科，口腔科，耳鼻喉科</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本型数字</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻醉方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>术后止痛泵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>pump</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值型数字范围为0-1，默认为0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地佐辛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dezocine</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值型数字范围为0-10，默认为0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲哌卡因</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>mepivacaine</t>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>anes_method</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普外科，妇科，产科，骨科，手足外科，脑外科，口腔科，耳鼻喉科；t_sys_dict : DEPARTMENT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>气管内全身麻醉，腰硬联合麻醉，硬膜外麻醉，神经阻滞麻醉，支气管内麻醉，强化麻醉；t_sys_dict : ANES_METHOD</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -564,82 +669,6 @@
   </si>
   <si>
     <t>病人年龄</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>admission_no</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>anesthesia_method</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation_time</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生姓名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻醉医生ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>anesthetist_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名：T_ANESTHETIST（麻醉医生表）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ANESTHETIST：ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(3)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1170,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2295,7 +2324,9 @@
         <v>10</v>
       </c>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5" t="s">
         <v>38</v>
@@ -2444,7 +2475,9 @@
         <v>10</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
         <v>38</v>
@@ -2587,7 +2620,9 @@
         <v>10</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
         <v>38</v>
@@ -2655,7 +2690,7 @@
         <v>13</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -2673,7 +2708,7 @@
         <v>22</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -2774,7 +2809,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -2815,16 +2850,18 @@
         <v>8</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G96" s="4"/>
       <c r="H96" s="5" t="s">
         <v>38</v>
@@ -2832,13 +2869,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -2850,13 +2887,13 @@
     </row>
     <row r="98" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -2865,18 +2902,18 @@
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -2885,18 +2922,18 @@
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -2906,13 +2943,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -2922,13 +2959,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -2936,15 +2973,15 @@
       <c r="G102" s="4"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -2953,75 +2990,83 @@
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C104" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C105" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C106" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C107" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
@@ -3094,7 +3139,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -3135,16 +3180,18 @@
         <v>8</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G115" s="4"/>
       <c r="H115" s="5" t="s">
         <v>38</v>
@@ -3152,47 +3199,47 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G116" s="4"/>
       <c r="H116" s="5"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -3200,53 +3247,91 @@
         <v>10</v>
       </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="5"/>
+      <c r="H118" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
+      <c r="F119" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G119" s="4"/>
       <c r="H119" s="5"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
+      <c r="F120" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G120" s="4"/>
       <c r="H120" s="5"/>
     </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A50:H50"/>
     <mergeCell ref="A113:H113"/>
     <mergeCell ref="A56:H56"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A71:H71"/>
     <mergeCell ref="A80:H80"/>
     <mergeCell ref="A94:H94"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A50:H50"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -536,139 +536,139 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>datetime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生姓名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉医生ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>anesthetist_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ANESTHETIST：ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_dt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient_age</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>术后止痛泵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地佐辛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲哌卡因</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：T_ANES_ANESTHETIST（麻醉医生表）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>anes_method</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普外科，妇科，产科，骨科，手足外科，脑外科，口腔科，耳鼻喉科；t_sys_dict : DEPARTMENT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>气管内全身麻醉，腰硬联合麻醉，硬膜外麻醉，神经阻滞麻醉，支气管内麻醉，强化麻醉；t_sys_dict : ANES_METHOD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人姓名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人年龄</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>admission_no</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生姓名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻醉医生ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>anesthetist_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ANESTHETIST：ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(3)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation_dt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>patient_name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>patient_age</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation_name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>术后止痛泵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地佐辛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲哌卡因</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名：T_ANES_ANESTHETIST（麻醉医生表）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>department</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>anes_method</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>普外科，妇科，产科，骨科，手足外科，脑外科，口腔科，耳鼻喉科；t_sys_dict : DEPARTMENT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>气管内全身麻醉，腰硬联合麻醉，硬膜外麻醉，神经阻滞麻醉，支气管内麻醉，强化麻醉；t_sys_dict : ANES_METHOD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>病人姓名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>病人年龄</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+      <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2690,7 +2690,7 @@
         <v>13</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -2708,7 +2708,7 @@
         <v>22</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -2850,7 +2850,7 @@
         <v>8</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>134</v>
@@ -2872,10 +2872,10 @@
         <v>146</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -2890,10 +2890,10 @@
         <v>135</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
@@ -2910,10 +2910,10 @@
         <v>136</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -2927,13 +2927,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -2943,13 +2943,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -2962,10 +2962,10 @@
         <v>139</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -2978,10 +2978,10 @@
         <v>140</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -2990,34 +2990,34 @@
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>141</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>143</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>145</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -3180,7 +3180,7 @@
         <v>8</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>134</v>
@@ -3199,13 +3199,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="118" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>98</v>
@@ -3321,17 +3321,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A50:H50"/>
     <mergeCell ref="A113:H113"/>
     <mergeCell ref="A56:H56"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A71:H71"/>
     <mergeCell ref="A80:H80"/>
     <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A50:H50"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
